--- a/samples/rider_details.xlsx
+++ b/samples/rider_details.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prash\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prash\Documents\ps_3\backend\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{870D2666-C879-4791-95AF-3CF71E676388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24DFC4B-0BEF-48CB-AD0C-EF213F33FCA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E5F42965-60D4-47E8-8E98-BAC9F1DD8F7B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>name</t>
   </si>
@@ -48,29 +48,71 @@
     <t>currentAvailableBagVolume</t>
   </si>
   <si>
-    <t>Nishant Devan</t>
-  </si>
-  <si>
-    <t>Pratik Gokhale</t>
-  </si>
-  <si>
-    <t>Devansh Agate</t>
-  </si>
-  <si>
-    <t>Aarav Ravel</t>
-  </si>
-  <si>
-    <t>Jagan Sahni</t>
+    <t>Shree</t>
+  </si>
+  <si>
+    <t>Sarthak</t>
+  </si>
+  <si>
+    <t>Sarthak2</t>
+  </si>
+  <si>
+    <t>Arpit</t>
+  </si>
+  <si>
+    <t>Harsh</t>
+  </si>
+  <si>
+    <t>Jagdish</t>
+  </si>
+  <si>
+    <t>Sushant</t>
+  </si>
+  <si>
+    <t>Pranay</t>
+  </si>
+  <si>
+    <t>rider1</t>
+  </si>
+  <si>
+    <t>rider2</t>
+  </si>
+  <si>
+    <t>rider3</t>
+  </si>
+  <si>
+    <t>rider4</t>
+  </si>
+  <si>
+    <t>rider5</t>
+  </si>
+  <si>
+    <t>rider6</t>
+  </si>
+  <si>
+    <t>rider7</t>
+  </si>
+  <si>
+    <t>rider8</t>
+  </si>
+  <si>
+    <t>riderID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -412,105 +454,191 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{154E9F5F-9AF6-4F54-A8F0-74D13D55B269}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" customWidth="1"/>
+    <col min="1" max="2" width="32.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>6127979336</v>
+      <c r="B2" t="s">
+        <v>12</v>
       </c>
       <c r="C2">
-        <v>67.400000000000006</v>
+        <v>9511725963</v>
       </c>
       <c r="D2">
-        <v>67.400000000000006</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <f>80*80*100</f>
+        <v>640000</v>
+      </c>
+      <c r="E2">
+        <f>D2</f>
+        <v>640000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>8917042871</v>
+      <c r="B3" t="s">
+        <v>13</v>
       </c>
       <c r="C3">
-        <v>56.87</v>
+        <v>6239803560</v>
       </c>
       <c r="D3">
-        <v>56.87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" ref="D3:D5" si="0">80*80*100</f>
+        <v>640000</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E9" si="1">D3</f>
+        <v>640000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>6801285752</v>
+      <c r="B4" t="s">
+        <v>14</v>
       </c>
       <c r="C4">
-        <v>72.680000000000007</v>
+        <v>1234567890</v>
       </c>
       <c r="D4">
-        <v>72.680000000000007</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>640000</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>640000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>6127950667</v>
+      <c r="B5" t="s">
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>47.12</v>
+        <v>3456789123</v>
       </c>
       <c r="D5">
-        <v>47.12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>640000</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>640000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>3457899322</v>
+      </c>
+      <c r="D6">
+        <f>60*60*100</f>
+        <v>360000</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>6127963952</v>
-      </c>
-      <c r="C6">
-        <v>67.22</v>
-      </c>
-      <c r="D6">
-        <v>67.22</v>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>9680518959</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7:D9" si="2">60*60*100</f>
+        <v>360000</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>6804188859</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>360000</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>9680518923</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>360000</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>360000</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/samples/rider_details.xlsx
+++ b/samples/rider_details.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prash\Documents\ps_3\backend\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24DFC4B-0BEF-48CB-AD0C-EF213F33FCA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0FFDA64-A019-4323-96FD-1DC29F78B33F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E5F42965-60D4-47E8-8E98-BAC9F1DD8F7B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="76">
   <si>
     <t>name</t>
   </si>
@@ -97,13 +97,178 @@
   </si>
   <si>
     <t>riderID</t>
+  </si>
+  <si>
+    <t>rider9</t>
+  </si>
+  <si>
+    <t>rider10</t>
+  </si>
+  <si>
+    <t>rider11</t>
+  </si>
+  <si>
+    <t>rider12</t>
+  </si>
+  <si>
+    <t>rider13</t>
+  </si>
+  <si>
+    <t>rider14</t>
+  </si>
+  <si>
+    <t>rider15</t>
+  </si>
+  <si>
+    <t>rider16</t>
+  </si>
+  <si>
+    <t>rider17</t>
+  </si>
+  <si>
+    <t>rider18</t>
+  </si>
+  <si>
+    <t>rider19</t>
+  </si>
+  <si>
+    <t>rider20</t>
+  </si>
+  <si>
+    <t>rider21</t>
+  </si>
+  <si>
+    <t>rider22</t>
+  </si>
+  <si>
+    <t>rider23</t>
+  </si>
+  <si>
+    <t>rider24</t>
+  </si>
+  <si>
+    <t>rider25</t>
+  </si>
+  <si>
+    <t>rider26</t>
+  </si>
+  <si>
+    <t>rider27</t>
+  </si>
+  <si>
+    <t>rider28</t>
+  </si>
+  <si>
+    <t>rider29</t>
+  </si>
+  <si>
+    <t>rider30</t>
+  </si>
+  <si>
+    <t>(573) 942-8471</t>
+  </si>
+  <si>
+    <t>(200) 543-1431</t>
+  </si>
+  <si>
+    <t>(499) 536-9106</t>
+  </si>
+  <si>
+    <t>(644) 224-5483</t>
+  </si>
+  <si>
+    <t>(507) 999-6016</t>
+  </si>
+  <si>
+    <t>(444) 237-7916</t>
+  </si>
+  <si>
+    <t>(486) 640-7893</t>
+  </si>
+  <si>
+    <t>(461) 498-6134</t>
+  </si>
+  <si>
+    <t>(668) 333-5963</t>
+  </si>
+  <si>
+    <t>(296) 570-1679</t>
+  </si>
+  <si>
+    <t>(838) 571-5098</t>
+  </si>
+  <si>
+    <t>(935) 564-2386</t>
+  </si>
+  <si>
+    <t>(867) 421-7686</t>
+  </si>
+  <si>
+    <t>(344) 835-8983</t>
+  </si>
+  <si>
+    <t>(356) 408-7745</t>
+  </si>
+  <si>
+    <t>(433) 713-6460</t>
+  </si>
+  <si>
+    <t>(652) 300-9942</t>
+  </si>
+  <si>
+    <t>(478) 787-0344</t>
+  </si>
+  <si>
+    <t>(584) 828-6594</t>
+  </si>
+  <si>
+    <t>(457) 462-5427</t>
+  </si>
+  <si>
+    <t>(545) 244-1411</t>
+  </si>
+  <si>
+    <t>(849) 763-6830</t>
+  </si>
+  <si>
+    <t>(431) 476-7658</t>
+  </si>
+  <si>
+    <t>(634) 580-7589</t>
+  </si>
+  <si>
+    <t>(313) 467-5615</t>
+  </si>
+  <si>
+    <t>(893) 387-9900</t>
+  </si>
+  <si>
+    <t>(236) 485-6002</t>
+  </si>
+  <si>
+    <t>(419) 754-3238</t>
+  </si>
+  <si>
+    <t>(500) 821-6555</t>
+  </si>
+  <si>
+    <t>(276) 955-8332</t>
+  </si>
+  <si>
+    <t>Sarthak3</t>
+  </si>
+  <si>
+    <t>Sarthak4</t>
+  </si>
+  <si>
+    <t>Sarthak5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +281,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="2">
@@ -138,8 +308,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,7 +619,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -454,7 +627,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{154E9F5F-9AF6-4F54-A8F0-74D13D55B269}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -492,8 +665,8 @@
       <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C2">
-        <v>9511725963</v>
+      <c r="C2" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="D2">
         <f>80*80*100</f>
@@ -511,11 +684,11 @@
       <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C3">
-        <v>6239803560</v>
+      <c r="C3" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D5" si="0">80*80*100</f>
+        <f t="shared" ref="D3:D16" si="0">80*80*100</f>
         <v>640000</v>
       </c>
       <c r="E3">
@@ -530,8 +703,8 @@
       <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4">
-        <v>1234567890</v>
+      <c r="C4" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
@@ -549,8 +722,8 @@
       <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C5">
-        <v>3456789123</v>
+      <c r="C5" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
@@ -568,16 +741,16 @@
       <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="C6">
-        <v>3457899322</v>
+      <c r="C6" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D6">
-        <f>60*60*100</f>
-        <v>360000</v>
+        <f t="shared" si="0"/>
+        <v>640000</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>360000</v>
+        <v>640000</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -587,16 +760,16 @@
       <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="C7">
-        <v>9680518959</v>
+      <c r="C7" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="D7">
-        <f t="shared" ref="D7:D9" si="2">60*60*100</f>
-        <v>360000</v>
+        <f t="shared" si="0"/>
+        <v>640000</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>360000</v>
+        <v>640000</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -606,16 +779,16 @@
       <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="C8">
-        <v>6804188859</v>
+      <c r="C8" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="D8">
-        <f t="shared" si="2"/>
-        <v>360000</v>
+        <f t="shared" si="0"/>
+        <v>640000</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>360000</v>
+        <v>640000</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -625,15 +798,418 @@
       <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="C9">
-        <v>9680518923</v>
+      <c r="C9" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="D9">
-        <f t="shared" si="2"/>
-        <v>360000</v>
+        <f t="shared" si="0"/>
+        <v>640000</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
+        <v>640000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>640000</v>
+      </c>
+      <c r="E10">
+        <f>D10</f>
+        <v>640000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>640000</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ref="E11:E31" si="2">D11</f>
+        <v>640000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>640000</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>640000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>640000</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>640000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>640000</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>640000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>640000</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>640000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>640000</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>640000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17">
+        <v>360000</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18">
+        <v>360000</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19">
+        <v>360000</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20">
+        <v>360000</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21">
+        <v>360000</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22">
+        <v>360000</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23">
+        <v>360000</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24">
+        <v>360000</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="2"/>
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25">
+        <v>360000</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="2"/>
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26">
+        <v>360000</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="2"/>
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27">
+        <v>360000</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="2"/>
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28">
+        <v>360000</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="2"/>
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29">
+        <v>360000</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="2"/>
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30">
+        <v>360000</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="2"/>
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31">
+        <v>360000</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="2"/>
         <v>360000</v>
       </c>
     </row>
